--- a/Results_comp.xlsx
+++ b/Results_comp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\OneDrive\Dokumente\GitHub\MA-pre-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/MA-pre-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257790E9-2A3B-46B1-BDE7-17E608B32223}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
   </bookViews>
@@ -16,42 +16,15 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$C$7:$C$39</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$C$7:$C$36</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$D$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$D$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$D$7:$D$39</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$E$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$E$7:$E$39</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$F$6</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$F$7:$F$39</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$G$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$G$7:$G$39</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$C$7:$C$39</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$D$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$7:$D$39</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$D$7:$D$39</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$E$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$E$7:$E$39</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$F$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Tabelle1!$F$7:$F$39</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Tabelle1!$G$6</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Tabelle1!$G$7:$G$39</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Tabelle1!$C$7:$C$38</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Tabelle1!$D$6</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Tabelle1!$D$7:$D$38</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$7:$D$36</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$E$6</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Tabelle1!$E$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Tabelle1!$E$7:$E$38</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Tabelle1!$F$6</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Tabelle1!$F$7:$F$38</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Tabelle1!$G$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Tabelle1!$G$7:$G$38</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$7:$E$39</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$7:$E$36</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$F$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$F$7:$F$39</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$F$7:$F$36</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$G$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$G$7:$G$39</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$C$7:$C$39</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$G$7:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Results first generation of Triplet contrastive Model and Autoencoder comparision to Superviesed Modell:</t>
   </si>
@@ -115,29 +88,139 @@
     <t>Random Seed 96:</t>
   </si>
   <si>
-    <t>Contrastive_Self-Supervised_try_1</t>
-  </si>
-  <si>
-    <t>Contrastive_Self-Supervised</t>
-  </si>
-  <si>
-    <t>Contrastive_Self-Supervised_try_2</t>
-  </si>
-  <si>
-    <t>Autoencoder_Self-Supervised_try_1</t>
-  </si>
-  <si>
-    <t>Autoencoder_Self-Supervised</t>
-  </si>
-  <si>
-    <t>Autoencoder_Self-Supervised_try_2</t>
+    <t>Mean Supervised</t>
+  </si>
+  <si>
+    <t>Mean Contrastive</t>
+  </si>
+  <si>
+    <t>Mean Autoencoder</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>Triplet_loss_Self-Supervised_try_1</t>
+  </si>
+  <si>
+    <t>Triplet_loss_Self-Supervised</t>
+  </si>
+  <si>
+    <t>Triplet_loss_Self-Supervised_try_2</t>
+  </si>
+  <si>
+    <t>MAE_Self-Supervised_try_1</t>
+  </si>
+  <si>
+    <t>MAE_Self-Supervised</t>
+  </si>
+  <si>
+    <t>MAE_Self-Supervised_try_2</t>
+  </si>
+  <si>
+    <t>SA-Model:</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  32S, 
+desired length =  15 sec</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Test1: masking</t>
+  </si>
+  <si>
+    <t>Test2: masking</t>
+  </si>
+  <si>
+    <t>Test3: batchsize</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  16, 
+desired length =  15 sec</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  8, 
+desired length =  15 sec</t>
+  </si>
+  <si>
+    <t>Test4: batchsize</t>
+  </si>
+  <si>
+    <t>Test5: Single  connected layer</t>
+  </si>
+  <si>
+    <t>Standalone Tests:</t>
+  </si>
+  <si>
+    <t>Comparision Refrence Models:</t>
+  </si>
+  <si>
+    <t>Standalone Model:</t>
+  </si>
+  <si>
+    <t>Reference Run 1:</t>
+  </si>
+  <si>
+    <t>Reference Run 2:</t>
+  </si>
+  <si>
+    <t>Reference Run 3:</t>
+  </si>
+  <si>
+    <t>Reference Run 4:</t>
+  </si>
+  <si>
+    <t>Reference Run 5:</t>
+  </si>
+  <si>
+    <t>2-Phase Model: Triplet Model</t>
+  </si>
+  <si>
+    <t>2-Phase Model: Autoencoder Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t>Test6: Length shortage</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  32, 
+desired length =  7 sec</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  32, 
+desired length =  15 sec</t>
+  </si>
+  <si>
+    <t>Time/freq NO Mask ,
+ batch size =  32, 
+desired length =  15 sec</t>
+  </si>
+  <si>
+    <t>Time/freq 30/120 Mask ,
+ batch size =  32, 
+desired length =  15 sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +230,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,13 +262,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -323,7 +430,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling min="0.80000000000000004"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -893,15 +1000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>766984</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101601</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>160130</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -937,8 +1044,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1171575" y="7791450"/>
-              <a:ext cx="6321426" cy="4749800"/>
+              <a:off x="3097434" y="7546009"/>
+              <a:ext cx="6289246" cy="4296189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -957,9 +1064,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-AT" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -971,10 +1078,29 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:F84" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A77:F84" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AB8CDC6F-9C20-4096-A0E5-0D72E0B4664E}" name=" "/>
+    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name=" 2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{99D3A78A-7368-42C8-93BF-F875498BBB3C}" name="macro avg f1"/>
+    <tableColumn id="4" xr3:uid="{7F7018A6-5984-424B-92B1-0A1D2415EAFE}" name="macro avg-precision/balanced Accuracy"/>
+    <tableColumn id="5" xr3:uid="{5ABB6AD2-F7EC-4A30-AB50-8C9516D2D242}" name="Kappa"/>
+    <tableColumn id="6" xr3:uid="{9EA54D08-66EF-44C3-879C-A916CE98A696}" name="Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1012,7 +1138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1118,7 +1244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1260,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1268,32 +1394,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA59E500-7BAA-4205-AA8D-1B424910C6AC}">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" customWidth="1"/>
     <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1310,12 +1439,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0.94</v>
@@ -1330,12 +1459,12 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>0.94</v>
@@ -1350,262 +1479,326 @@
         <v>0.95340000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.89</v>
+      </c>
+      <c r="E9">
+        <v>0.88</v>
+      </c>
+      <c r="F9">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0.91</v>
+      </c>
+      <c r="E10">
+        <v>0.89</v>
+      </c>
+      <c r="F10">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0.88</v>
+      </c>
+      <c r="E11">
+        <v>0.87</v>
+      </c>
+      <c r="F11">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0.88</v>
+      </c>
+      <c r="E12">
+        <v>0.86</v>
+      </c>
+      <c r="F12">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.91310000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
         <v>0.88</v>
       </c>
-      <c r="E9">
+      <c r="E15">
         <v>0.87</v>
       </c>
-      <c r="F9">
-        <v>0.85140000000000005</v>
-      </c>
-      <c r="G9">
-        <v>0.90680000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="F15">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="G15">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>0.88</v>
-      </c>
-      <c r="E10">
-        <v>0.86</v>
-      </c>
-      <c r="F10">
-        <v>0.86129999999999995</v>
-      </c>
-      <c r="G10">
-        <v>0.91310000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
+      <c r="D16">
         <v>0.89</v>
       </c>
-      <c r="E11">
-        <v>0.88</v>
-      </c>
-      <c r="F11">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0.91</v>
-      </c>
-      <c r="E12">
+      <c r="E16">
         <v>0.89</v>
       </c>
-      <c r="F12">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="G12">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>0.88</v>
-      </c>
-      <c r="E16">
-        <v>0.87</v>
-      </c>
       <c r="F16">
-        <v>0.87660000000000005</v>
+        <v>0.87970000000000004</v>
       </c>
       <c r="G16">
-        <v>0.92159999999999997</v>
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="J16" s="1">
+        <f>AVERAGE(G9:G10,G17:G18,G25:G26,G33:G34)</f>
+        <v>0.92401250000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <f>AVERAGE(G7:G8,G15:G16,G23:G24,G31:G32)</f>
+        <v>0.93854999999999988</v>
+      </c>
+      <c r="L16" s="1">
+        <f>AVERAGE(G11:G12,G19:G20,G27:G28,G35:G36)</f>
+        <v>0.90995000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E17">
-        <v>0.89</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="F17">
-        <v>0.87970000000000004</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="G17">
-        <v>0.92369999999999997</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E18">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F18">
-        <v>0.85629999999999995</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="G18">
-        <v>0.90890000000000004</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E19">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F19">
-        <v>0.82509999999999994</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="G19">
-        <v>0.88980000000000004</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E20">
-        <v>0.86719999999999997</v>
+        <v>0.89</v>
       </c>
       <c r="F20">
-        <v>0.86629999999999996</v>
+        <v>0.82509999999999994</v>
       </c>
       <c r="G20">
-        <v>0.9153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>0.89</v>
-      </c>
-      <c r="E21">
-        <v>0.88</v>
-      </c>
-      <c r="F21">
-        <v>0.86639999999999995</v>
-      </c>
-      <c r="G21">
-        <v>0.9153</v>
+        <v>0.88980000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>0.94</v>
+      </c>
+      <c r="E23">
+        <v>0.95</v>
+      </c>
+      <c r="F23">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.93640000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>12</v>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>0.93</v>
+      </c>
+      <c r="E24">
+        <v>0.93</v>
+      </c>
+      <c r="F24">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.94069999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F25">
-        <v>0.89980000000000004</v>
+        <v>0.88190000000000002</v>
       </c>
       <c r="G25">
-        <v>0.93640000000000001</v>
+        <v>0.92579999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E26">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.90600000000000003</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="G26">
-        <v>0.94069999999999998</v>
+        <v>0.93010000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0.87</v>
@@ -1622,10 +1815,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>0.86</v>
@@ -1640,174 +1833,363 @@
         <v>0.90039999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>0.93</v>
+      </c>
+      <c r="E31">
+        <v>0.92</v>
+      </c>
+      <c r="F31">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.94489999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0.92</v>
+      </c>
+      <c r="E32">
+        <v>0.92</v>
+      </c>
+      <c r="F32">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.94069999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D29">
+      <c r="D33">
+        <v>0.91</v>
+      </c>
+      <c r="E33">
         <v>0.89</v>
       </c>
-      <c r="E29">
+      <c r="F33">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0.91</v>
+      </c>
+      <c r="E34">
+        <v>0.9</v>
+      </c>
+      <c r="F34">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
         <v>0.89</v>
       </c>
-      <c r="F29">
-        <v>0.88190000000000002</v>
-      </c>
-      <c r="G29">
-        <v>0.92579999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>0.9</v>
-      </c>
-      <c r="E30">
-        <v>0.9</v>
-      </c>
-      <c r="F30">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="G30">
-        <v>0.93010000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>0.93</v>
-      </c>
-      <c r="E34">
-        <v>0.92</v>
-      </c>
-      <c r="F34">
-        <v>0.91310000000000002</v>
-      </c>
-      <c r="G34">
-        <v>0.94489999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>0.92</v>
-      </c>
       <c r="E35">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F35">
-        <v>0.90620000000000001</v>
+        <v>0.87980000000000003</v>
       </c>
       <c r="G35">
-        <v>0.94069999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.92369999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E36">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="F36">
-        <v>0.87980000000000003</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="G36">
-        <v>0.92369999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>0.84</v>
-      </c>
-      <c r="E37">
-        <v>0.84</v>
-      </c>
-      <c r="F37">
-        <v>0.85150000000000003</v>
-      </c>
-      <c r="G37">
         <v>0.90680000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>0.91</v>
-      </c>
-      <c r="E38">
-        <v>0.89</v>
-      </c>
-      <c r="F38">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="G38">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>0.91</v>
-      </c>
-      <c r="E39">
-        <v>0.9</v>
-      </c>
-      <c r="F39">
-        <v>0.87709999999999999</v>
-      </c>
-      <c r="G39">
-        <v>0.92159999999999997</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Results_comp.xlsx
+++ b/Results_comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/MA-pre-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257790E9-2A3B-46B1-BDE7-17E608B32223}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D964A3-E027-4055-9C61-9F041D42C4C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>Results first generation of Triplet contrastive Model and Autoencoder comparision to Superviesed Modell:</t>
   </si>
@@ -126,9 +126,6 @@
 desired length =  15 sec</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Test1: masking</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Test4: batchsize</t>
   </si>
   <si>
-    <t>Test5: Single  connected layer</t>
-  </si>
-  <si>
     <t>Standalone Tests:</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
   </si>
   <si>
     <t>Test6: Length shortage</t>
@@ -211,16 +202,73 @@
     <t>Time/freq 30/120 Mask ,
  batch size =  32, 
 desired length =  15 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Checkpoints: macro avg F1</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Best SA so far</t>
+  </si>
+  <si>
+    <t>Best Triplet FT so far</t>
+  </si>
+  <si>
+    <t>Way longer training 67 epochs</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>From comparison table</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  32, 
+desired length =  20 sec</t>
+  </si>
+  <si>
+    <t>Test5:
+ Single  connected layer Class. Head</t>
+  </si>
+  <si>
+    <t>Time/freq Mask 7/50 default,
+ batch size =  32, 
+desired length =  15 sec
+2 Epochs</t>
+  </si>
+  <si>
+    <t>Comparision Start Models:</t>
+  </si>
+  <si>
+    <t>Test7: Length shortage</t>
+  </si>
+  <si>
+    <t>Standalone
+Test8: Only 2 Epochs</t>
+  </si>
+  <si>
+    <t>Contrastive Triplet
+Test8: Only 2 Epochs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,16 +289,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -258,11 +356,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -274,16 +407,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1045,7 +1261,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3097434" y="7546009"/>
-              <a:ext cx="6289246" cy="4296189"/>
+              <a:ext cx="6365446" cy="4296189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1083,17 +1299,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:F84" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A77:F84" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:G84" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A77:G84" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB8CDC6F-9C20-4096-A0E5-0D72E0B4664E}" name=" "/>
-    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name=" 2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name="  " dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{99D3A78A-7368-42C8-93BF-F875498BBB3C}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{7F7018A6-5984-424B-92B1-0A1D2415EAFE}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{5ABB6AD2-F7EC-4A30-AB50-8C9516D2D242}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{9EA54D08-66EF-44C3-879C-A916CE98A696}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{19D796DB-2B1D-41FC-B1A7-905614F1536D}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}" name="Table1" displayName="Table1" ref="A92:H109" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A92:H109" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E07EDB55-BEA7-4CA2-A5A6-673EF6BA822A}" name=" "/>
+    <tableColumn id="2" xr3:uid="{4666AB22-C86C-4C36-989A-2DABFFF963E7}" name="   "/>
+    <tableColumn id="3" xr3:uid="{76D20BE2-2DAF-49CD-9D84-8A2C618CCE2F}" name="macro avg f1"/>
+    <tableColumn id="4" xr3:uid="{B97EC869-3EEC-481F-B024-1D21F302F6AD}" name="macro avg-precision/balanced Accuracy"/>
+    <tableColumn id="5" xr3:uid="{76AADE4E-AC3A-4294-B5D1-25E132CC2485}" name="Kappa"/>
+    <tableColumn id="6" xr3:uid="{BEBA1E20-55EA-444B-873C-43F0D5A87632}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{4AAE523D-D01F-4A58-A235-088933009CEE}" name="Mean" dataDxfId="8">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3F58D912-EBB1-4BC4-9BAD-31C078744B5F}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}" name="Table33" displayName="Table33" ref="A135:G142" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A135:G142" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0596CE45-4EFE-4722-B69F-FFA200D87F7E}" name=" "/>
+    <tableColumn id="2" xr3:uid="{1EA576DD-25A5-40E5-B53C-D93043B812BD}" name="  " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{13EEAB63-E4A3-4BB1-B37A-DD073849DC3A}" name="macro avg f1"/>
+    <tableColumn id="4" xr3:uid="{6B7F3B1F-5A7A-4153-9286-BD168BDCF9B1}" name="macro avg-precision/balanced Accuracy"/>
+    <tableColumn id="5" xr3:uid="{351A51AD-5B54-41F4-AA83-196D06DCB300}" name="Kappa"/>
+    <tableColumn id="6" xr3:uid="{7B0A1711-1D85-451A-8606-9A47DD9409B0}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{F0F5955F-F0EB-422B-A18E-82C1C3F95343}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}" name="Table15" displayName="Table15" ref="A150:H167" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A150:H167" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{85C8B1DF-C38D-4D4A-91A3-EFFCC74F927D}" name=" "/>
+    <tableColumn id="2" xr3:uid="{9F2BC945-D326-4B76-8CB4-50C7BD6C0426}" name="   "/>
+    <tableColumn id="3" xr3:uid="{4040CFB3-5357-41D6-8CDA-37729EBAD2D7}" name="macro avg f1"/>
+    <tableColumn id="4" xr3:uid="{FDD369D4-89CC-44FF-8BB1-E93C878D46AC}" name="macro avg-precision/balanced Accuracy"/>
+    <tableColumn id="5" xr3:uid="{ADEC3AE9-C98F-4007-B740-6D009F61D0B2}" name="Kappa"/>
+    <tableColumn id="6" xr3:uid="{F74A9505-1A0A-47B0-9605-48122AD8027B}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{67461F49-9B8D-40EE-B711-89BAC5A60E4D}" name="Mean" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(Table15[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{7EE25E53-38D2-4D2E-8BA6-6A2FFAC75EFC}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}" name="Table5" displayName="Table5" ref="A116:H118" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3">
+  <autoFilter ref="A116:H118" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{086A9616-E611-4C79-A501-147557DCCEF4}" name=" " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{030C1E67-A861-4653-AF79-ECB8A890E832}" name="   " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7D32DAD3-5CBD-43F3-9066-D4C391B67FF6}" name="macro avg f1"/>
+    <tableColumn id="4" xr3:uid="{EA98D043-5BF4-4805-B31C-D33C9E5CB699}" name="macro avg-precision/balanced Accuracy"/>
+    <tableColumn id="5" xr3:uid="{4C567BF7-F31A-456B-9501-698C527D5AFC}" name="Kappa"/>
+    <tableColumn id="6" xr3:uid="{17C0DAC7-FDE2-4D43-8A6B-FEEAC09DAEBB}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{68C3DDDB-1B5B-4329-AFF6-963B3A32E555}" name="Mean"/>
+    <tableColumn id="8" xr3:uid="{C1CCEE3B-A584-4DAB-A666-FB5B487B6543}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1394,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA59E500-7BAA-4205-AA8D-1B424910C6AC}">
-  <dimension ref="A2:L113"/>
+  <dimension ref="A2:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,24 +1693,25 @@
     <col min="1" max="1" width="33.36328125" customWidth="1"/>
     <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1439,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1459,7 +1748,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1768,7 @@
         <v>0.95340000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1788,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1808,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1539,7 +1828,7 @@
         <v>0.90680000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1559,15 +1848,15 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1586,17 +1875,17 @@
       <c r="G15">
         <v>0.92159999999999997</v>
       </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1615,15 +1904,15 @@
       <c r="G16">
         <v>0.92369999999999997</v>
       </c>
-      <c r="J16" s="1">
+      <c r="H16" s="1">
         <f>AVERAGE(G9:G10,G17:G18,G25:G26,G33:G34)</f>
         <v>0.92401250000000001</v>
       </c>
-      <c r="K16" s="1">
+      <c r="I16" s="1">
         <f>AVERAGE(G7:G8,G15:G16,G23:G24,G31:G32)</f>
         <v>0.93854999999999988</v>
       </c>
-      <c r="L16" s="1">
+      <c r="J16" s="1">
         <f>AVERAGE(G11:G12,G19:G20,G27:G28,G35:G36)</f>
         <v>0.90995000000000004</v>
       </c>
@@ -1958,22 +2247,25 @@
         <v>0.90680000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+    <row r="75" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
@@ -1987,209 +2279,688 @@
       <c r="F77" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G77" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D78">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="E78">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F78">
+        <v>0.94489999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="D93">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="E93">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="F93">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="G93">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.913825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="2" t="s">
+      <c r="C94">
+        <v>0.9113</v>
+      </c>
+      <c r="D94">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="F94">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G94">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.911775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="E95" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="G95" s="15">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.92725000000000002</v>
+      </c>
+      <c r="H95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="D96">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="E96">
+        <v>0.8851</v>
+      </c>
+      <c r="F96">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G96">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.90942499999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="D97">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="E97">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="F97">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="G97">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.91397499999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="D98">
+        <v>0.9395</v>
+      </c>
+      <c r="E98">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="F98">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G98">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.93282500000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G99" s="13">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>0.9415</v>
+      </c>
+      <c r="D100">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E100">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="F100">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G100" s="11">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.93302499999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="D101">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="E101">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="F101">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="G101" s="11">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.93352500000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="D102">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="F102">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G102" s="11">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.92747500000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G109" s="11"/>
+    </row>
+    <row r="114" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D116" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E116" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F116" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="G116" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B134" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A148" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="11"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" s="11"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="G164" s="11"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>40</v>
-      </c>
+      <c r="G165" s="11"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G166" s="11"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G167" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Results_comp.xlsx
+++ b/Results_comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/MA-pre-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D964A3-E027-4055-9C61-9F041D42C4C2}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBFC549-0570-4D9B-9823-A7E8AAD19BCC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
+    <workbookView xWindow="-14505" yWindow="16110" windowWidth="14610" windowHeight="15585" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
   <si>
     <t>Results first generation of Triplet contrastive Model and Autoencoder comparision to Superviesed Modell:</t>
   </si>
@@ -214,15 +214,6 @@
   </si>
   <si>
     <t>Mean</t>
-  </si>
-  <si>
-    <t>Best SA so far</t>
-  </si>
-  <si>
-    <t>Best Triplet FT so far</t>
-  </si>
-  <si>
-    <t>Way longer training 67 epochs</t>
   </si>
   <si>
     <t>Comments</t>
@@ -249,15 +240,63 @@
     <t>Comparision Start Models:</t>
   </si>
   <si>
-    <t>Test7: Length shortage</t>
-  </si>
-  <si>
     <t>Standalone
 Test8: Only 2 Epochs</t>
   </si>
   <si>
     <t>Contrastive Triplet
 Test8: Only 2 Epochs</t>
+  </si>
+  <si>
+    <t>Test7: Length longer</t>
+  </si>
+  <si>
+    <t>Standalone Model: Test0</t>
+  </si>
+  <si>
+    <t>Test0:</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Time mask</t>
+  </si>
+  <si>
+    <t>Freq mask</t>
+  </si>
+  <si>
+    <t>batchsize</t>
+  </si>
+  <si>
+    <t>desired length in sec</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Test5: Class. Head</t>
+  </si>
+  <si>
+    <t>Parameter:</t>
+  </si>
+  <si>
+    <t>Measures:</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Test8:</t>
   </si>
 </sst>
 </file>
@@ -266,7 +305,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -322,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +386,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -391,11 +460,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,22 +622,448 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -465,19 +1100,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -490,10 +1112,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1261,7 +1883,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3097434" y="7546009"/>
-              <a:ext cx="6365446" cy="4296189"/>
+              <a:ext cx="6441646" cy="4296189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1299,46 +1921,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:G84" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A77:G84" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:H85" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A77:H85" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB8CDC6F-9C20-4096-A0E5-0D72E0B4664E}" name=" "/>
-    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name="  " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name="  " dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{99D3A78A-7368-42C8-93BF-F875498BBB3C}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{7F7018A6-5984-424B-92B1-0A1D2415EAFE}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{5ABB6AD2-F7EC-4A30-AB50-8C9516D2D242}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{9EA54D08-66EF-44C3-879C-A916CE98A696}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{19D796DB-2B1D-41FC-B1A7-905614F1536D}" name="Comments"/>
+    <tableColumn id="7" xr3:uid="{19D796DB-2B1D-41FC-B1A7-905614F1536D}" name="Mean" dataDxfId="28">
+      <calculatedColumnFormula>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4688CF39-677F-4E35-8FD4-F6DA77D8AE9C}" name="Rank" dataDxfId="17">
+      <calculatedColumnFormula>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}" name="Table1" displayName="Table1" ref="A92:H109" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A92:H109" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}" name="Table1" displayName="Table1" ref="A116:H131" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A116:H131" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E07EDB55-BEA7-4CA2-A5A6-673EF6BA822A}" name=" "/>
-    <tableColumn id="2" xr3:uid="{4666AB22-C86C-4C36-989A-2DABFFF963E7}" name="   "/>
+    <tableColumn id="2" xr3:uid="{4666AB22-C86C-4C36-989A-2DABFFF963E7}" name="   " dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{76D20BE2-2DAF-49CD-9D84-8A2C618CCE2F}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{B97EC869-3EEC-481F-B024-1D21F302F6AD}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{76AADE4E-AC3A-4294-B5D1-25E132CC2485}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{BEBA1E20-55EA-444B-873C-43F0D5A87632}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{4AAE523D-D01F-4A58-A235-088933009CEE}" name="Mean" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{4AAE523D-D01F-4A58-A235-088933009CEE}" name="Mean" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3F58D912-EBB1-4BC4-9BAD-31C078744B5F}" name="Comments"/>
+    <tableColumn id="8" xr3:uid="{F63966AC-BF0D-48F1-B712-0FB1F4CDE0CC}" name="rank" dataDxfId="16">
+      <calculatedColumnFormula>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}" name="Table33" displayName="Table33" ref="A135:G142" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A135:G142" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}" name="Table33" displayName="Table33" ref="A157:G164" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A157:G164" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0596CE45-4EFE-4722-B69F-FFA200D87F7E}" name=" "/>
-    <tableColumn id="2" xr3:uid="{1EA576DD-25A5-40E5-B53C-D93043B812BD}" name="  " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1EA576DD-25A5-40E5-B53C-D93043B812BD}" name="  " dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{13EEAB63-E4A3-4BB1-B37A-DD073849DC3A}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{6B7F3B1F-5A7A-4153-9286-BD168BDCF9B1}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{351A51AD-5B54-41F4-AA83-196D06DCB300}" name="Kappa"/>
@@ -1350,8 +1979,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}" name="Table15" displayName="Table15" ref="A150:H167" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A150:H167" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}" name="Table15" displayName="Table15" ref="A172:H189" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A172:H189" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{85C8B1DF-C38D-4D4A-91A3-EFFCC74F927D}" name=" "/>
     <tableColumn id="2" xr3:uid="{9F2BC945-D326-4B76-8CB4-50C7BD6C0426}" name="   "/>
@@ -1359,7 +1988,7 @@
     <tableColumn id="4" xr3:uid="{FDD369D4-89CC-44FF-8BB1-E93C878D46AC}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{ADEC3AE9-C98F-4007-B740-6D009F61D0B2}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{F74A9505-1A0A-47B0-9605-48122AD8027B}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{67461F49-9B8D-40EE-B711-89BAC5A60E4D}" name="Mean" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{67461F49-9B8D-40EE-B711-89BAC5A60E4D}" name="Mean" dataDxfId="23">
       <calculatedColumnFormula>AVERAGE(Table15[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{7EE25E53-38D2-4D2E-8BA6-6A2FFAC75EFC}" name="Comments"/>
@@ -1369,19 +1998,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}" name="Table5" displayName="Table5" ref="A116:H118" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3">
-  <autoFilter ref="A116:H118" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}" name="Table5" displayName="Table5" ref="A138:H140" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
+  <autoFilter ref="A138:H140" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{086A9616-E611-4C79-A501-147557DCCEF4}" name=" " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{030C1E67-A861-4653-AF79-ECB8A890E832}" name="   " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{086A9616-E611-4C79-A501-147557DCCEF4}" name=" " dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{030C1E67-A861-4653-AF79-ECB8A890E832}" name="   " dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{7D32DAD3-5CBD-43F3-9066-D4C391B67FF6}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{EA98D043-5BF4-4805-B31C-D33C9E5CB699}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{4C567BF7-F31A-456B-9501-698C527D5AFC}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{17C0DAC7-FDE2-4D43-8A6B-FEEAC09DAEBB}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{68C3DDDB-1B5B-4329-AFF6-963B3A32E555}" name="Mean"/>
+    <tableColumn id="7" xr3:uid="{68C3DDDB-1B5B-4329-AFF6-963B3A32E555}" name="Mean" dataDxfId="18">
+      <calculatedColumnFormula>AVERAGE(Table5[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{C1CCEE3B-A584-4DAB-A666-FB5B487B6543}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84518F59-B0C9-4A51-AF1D-684AA8AD53E8}" name="Table6" displayName="Table6" ref="A91:L99" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A91:L99" xr:uid="{84518F59-B0C9-4A51-AF1D-684AA8AD53E8}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DC7F5440-E688-4371-9FA0-EADEBA216037}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{947EC533-0376-454E-817C-707AA2DDC380}" name="Time mask" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5DD78466-9D8A-41FF-A0DE-2725C0801E04}" name="Freq mask" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9E13E6F8-2A68-4E29-83DB-4EA1954587A3}" name="batchsize" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AD4CF29C-EFD7-415B-83A0-80BFAF8231AA}" name="desired length in sec" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2F75A5C9-8868-49B2-AEEA-9FDAA962619B}" name="CH" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{51198886-F5EA-411D-8E38-CFF3979C6121}" name="macro avg f1" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{14D2E53A-FF22-4B0A-BAFB-569A3F787C73}" name="macro avg-precision/balanced Accuracy" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D57330B4-E7D1-418B-9EF3-F0EC9E9196BD}" name="Kappa" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{809850D1-F057-40F1-AAA9-C176BCE454AB}" name="Accuracy" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{FD6A8607-1C69-4AEB-AC55-AF1CBF547D62}" name="Mean" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{94D43D66-5E00-4726-B90A-776BB2B4A2E1}" name="Rank" dataDxfId="3">
+      <calculatedColumnFormula>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1682,23 +2338,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA59E500-7BAA-4205-AA8D-1B424910C6AC}">
-  <dimension ref="A2:J167"/>
+  <dimension ref="A2:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" customWidth="1"/>
     <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7265625" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2247,7 +2904,7 @@
         <v>0.90680000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="9" t="s">
         <v>31</v>
       </c>
@@ -2255,12 +2912,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2280,12 +2937,15 @@
         <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>44</v>
@@ -2302,665 +2962,1325 @@
       <c r="F78">
         <v>0.94489999999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.92725000000000002</v>
+      </c>
+      <c r="H78">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="D79">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="E79">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="F79">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="G79">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H79">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="C80">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="D80">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="E80">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="F80">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="G80">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.900725</v>
+      </c>
+      <c r="H80">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C81" s="39">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="D81" s="39">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="E81" s="39">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="F81" s="39">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G81" s="39">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="H81" s="39">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="D82">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="E82">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F82">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="G82">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="H82">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D83">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="E83">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F83">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="G83" s="20">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.90215000000000001</v>
+      </c>
+      <c r="H83">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>42</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E84">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.8962</v>
+      </c>
+      <c r="G84">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.84372499999999995</v>
+      </c>
+      <c r="H84">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="D85">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F85">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="G85">
+        <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.88407499999999994</v>
+      </c>
+      <c r="H85">
+        <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="19">
+        <v>30</v>
+      </c>
+      <c r="C92" s="19">
+        <v>120</v>
+      </c>
+      <c r="D92" s="19">
+        <v>32</v>
+      </c>
+      <c r="E92" s="19">
+        <v>15</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="19">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="H92" s="19">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="I92" s="19">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="J92" s="19">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="K92" s="19">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="L92" s="19">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="17">
+        <v>0</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="17">
+        <v>32</v>
+      </c>
+      <c r="E93" s="17">
+        <v>15</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="17">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="J93" s="17">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="K93" s="17">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.900725</v>
+      </c>
+      <c r="L93" s="17">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="19">
+        <v>7</v>
+      </c>
+      <c r="C94" s="19">
+        <v>50</v>
+      </c>
+      <c r="D94" s="19">
+        <v>16</v>
+      </c>
+      <c r="E94" s="19">
+        <v>15</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="19">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="H94" s="19">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="I94" s="19">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="J94" s="19">
+        <v>0.9153</v>
+      </c>
+      <c r="K94" s="19">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89017499999999994</v>
+      </c>
+      <c r="L94" s="19">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="17">
+        <v>7</v>
+      </c>
+      <c r="C95" s="17">
+        <v>50</v>
+      </c>
+      <c r="D95" s="17">
+        <v>8</v>
+      </c>
+      <c r="E95" s="17">
+        <v>15</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="17">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="J95" s="17">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="K95" s="17">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="L95" s="17">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="19">
+        <v>7</v>
+      </c>
+      <c r="C96" s="19">
+        <v>50</v>
+      </c>
+      <c r="D96" s="19">
+        <v>32</v>
+      </c>
+      <c r="E96" s="19">
+        <v>15</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" s="19">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H96" s="19">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="I96" s="19">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J96" s="19">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="K96" s="23">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.90215000000000001</v>
+      </c>
+      <c r="L96" s="19">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="17">
+        <v>7</v>
+      </c>
+      <c r="C97" s="17">
+        <v>50</v>
+      </c>
+      <c r="D97" s="17">
+        <v>32</v>
+      </c>
+      <c r="E97" s="17">
+        <v>7</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0.8962</v>
+      </c>
+      <c r="K97" s="17">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.84372499999999995</v>
+      </c>
+      <c r="L97" s="17">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="19">
+        <v>7</v>
+      </c>
+      <c r="C98" s="19">
+        <v>50</v>
+      </c>
+      <c r="D98" s="19">
+        <v>32</v>
+      </c>
+      <c r="E98" s="19">
+        <v>20</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98" s="19">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="H98" s="19">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I98" s="19">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J98" s="19">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="K98" s="19">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.88407499999999994</v>
+      </c>
+      <c r="L98" s="19">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="25">
+        <v>7</v>
+      </c>
+      <c r="C99" s="25">
+        <v>50</v>
+      </c>
+      <c r="D99" s="25">
+        <v>32</v>
+      </c>
+      <c r="E99" s="25">
+        <v>15</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="25">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="H99" s="25">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="I99" s="25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J99" s="25">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="K99" s="26">
+        <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.92725000000000002</v>
+      </c>
+      <c r="L99" s="26">
+        <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="B117" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="33">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F117" s="15">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="G117" s="36">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.92725000000000002</v>
+      </c>
+      <c r="H117">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
         <v>5</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93">
-        <v>0.90949999999999998</v>
-      </c>
-      <c r="D93">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="E93">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="F93">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="G93">
-        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
-        <v>0.913825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B118" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C94">
+      <c r="C118">
         <v>0.9113</v>
       </c>
-      <c r="D94">
+      <c r="D118">
         <v>0.92230000000000001</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E118" s="10">
         <v>0.88549999999999995</v>
       </c>
-      <c r="F94">
+      <c r="F118">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G94">
+      <c r="G118" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.911775</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+      <c r="H118">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B119" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="14">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="D95" s="14">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="E95" s="14">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="F95" s="14">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="G95" s="15">
+      <c r="C119">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D119">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E119">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="F119">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="G119" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
-        <v>0.92725000000000002</v>
-      </c>
-      <c r="H95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="H119">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B120" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C96">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="D96">
-        <v>0.91920000000000002</v>
-      </c>
-      <c r="E96">
-        <v>0.8851</v>
-      </c>
-      <c r="F96">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G96">
+      <c r="C120">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="D120">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="E120">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="F120">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="G120" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
-        <v>0.90942499999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B97" t="s">
+        <v>0.9192499999999999</v>
+      </c>
+      <c r="H120">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="31"/>
+      <c r="B121" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C97">
+      <c r="C121" s="31">
         <v>0.91010000000000002</v>
       </c>
-      <c r="D97">
+      <c r="D121" s="31">
         <v>0.92069999999999996</v>
       </c>
-      <c r="E97">
+      <c r="E121" s="31">
         <v>0.89290000000000003</v>
       </c>
-      <c r="F97">
+      <c r="F121" s="31">
         <v>0.93220000000000003</v>
       </c>
-      <c r="G97">
+      <c r="G121" s="32">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.91397499999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="H121" s="31">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B122" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C98">
+      <c r="C122">
         <v>0.94520000000000004</v>
       </c>
-      <c r="D98">
+      <c r="D122">
         <v>0.9395</v>
       </c>
-      <c r="E98">
+      <c r="E122">
         <v>0.90590000000000004</v>
       </c>
-      <c r="F98">
+      <c r="F122">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G98">
+      <c r="G122" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93282500000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
+      <c r="H122">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B123" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C123" s="11">
         <v>0.95589999999999997</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D123" s="11">
         <v>0.95420000000000005</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E123" s="11">
         <v>0.91639999999999999</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F123" s="11">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G123" s="37">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.94179999999999997</v>
       </c>
-      <c r="H99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
+      <c r="H123">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B124" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C100">
+      <c r="C124">
         <v>0.9415</v>
       </c>
-      <c r="D100">
+      <c r="D124">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E100">
+      <c r="E124">
         <v>0.90590000000000004</v>
       </c>
-      <c r="F100">
+      <c r="F124">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G124" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93302499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
+      <c r="H124">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C101">
+      <c r="C125">
         <v>0.92679999999999996</v>
       </c>
-      <c r="D101">
+      <c r="D125">
         <v>0.95389999999999997</v>
       </c>
-      <c r="E101">
+      <c r="E125">
         <v>0.91059999999999997</v>
       </c>
-      <c r="F101">
+      <c r="F125">
         <v>0.94279999999999997</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G125" s="27">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93352500000000005</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
+      <c r="H125">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>6</v>
+      </c>
+      <c r="K125" s="31"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="31"/>
+      <c r="B126" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C102">
+      <c r="C126" s="31">
         <v>0.93859999999999999</v>
       </c>
-      <c r="D102">
+      <c r="D126" s="31">
         <v>0.92479999999999996</v>
       </c>
-      <c r="E102">
+      <c r="E126" s="31">
         <v>0.90580000000000005</v>
       </c>
-      <c r="F102">
+      <c r="F126" s="31">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G126" s="32">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.92747500000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
+      <c r="H126" s="31">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B127" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
+      <c r="C127">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="D127">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E127">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F127">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="G127" s="27">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89060000000000006</v>
+      </c>
+      <c r="H127">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B128" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
+      <c r="C128">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="D128">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="E128">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="F128">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="G128" s="27">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89742499999999992</v>
+      </c>
+      <c r="H128">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B129" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
+      <c r="C129">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="D129">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E129">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="F129">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="G129" s="27">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.86574999999999991</v>
+      </c>
+      <c r="H129">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B130" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
+      <c r="C130">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="D130">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="E130">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="F130">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="G130" s="27">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.85935000000000006</v>
+      </c>
+      <c r="H130">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B131" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G109" s="11"/>
-    </row>
-    <row r="114" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A114" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C131" s="14">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D131" s="14">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="E131" s="14">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="F131" s="14">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="G131" s="38">
+        <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="H131">
+        <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A136" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
+    <row r="137" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="5" t="s">
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C138" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D138" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E138" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F116" s="16" t="s">
+      <c r="F138" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G138" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H116" s="17" t="s">
+      <c r="H138" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="D139">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="E139">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="F139">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="G139">
+        <f>AVERAGE(Table5[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.57857500000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="D140">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="E140">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="F140">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="G140">
+        <f>AVERAGE(Table5[[#This Row],[macro avg f1]:[Accuracy]])</f>
+        <v>0.8004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B156" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A133" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="B163" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>42</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A170" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B134" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="171" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>41</v>
       </c>
-      <c r="B135" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="2" t="s">
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>55</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>27</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>42</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>42</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A148" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+      <c r="H172" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B173" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B152" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
         <v>35</v>
       </c>
-      <c r="E152" s="10"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B153" t="s">
+      <c r="E174" s="10"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B154" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B155" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B178" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B157" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B158" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
         <v>36</v>
       </c>
-      <c r="G158" s="11"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B159" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
         <v>37</v>
       </c>
-      <c r="G159" s="11"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B160" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
         <v>38</v>
       </c>
-      <c r="G160" s="11"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B183" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B162" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B163" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
         <v>36</v>
       </c>
-      <c r="G163" s="11"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B164" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
         <v>37</v>
       </c>
-      <c r="G164" s="11"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B165" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
         <v>38</v>
       </c>
-      <c r="G165" s="11"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G166" s="11"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G167" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Results_comp.xlsx
+++ b/Results_comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/MA-pre-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBFC549-0570-4D9B-9823-A7E8AAD19BCC}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="8_{28D44724-9F0C-42C7-AC27-00BBE808AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAC70AD-1857-4DF9-A2B6-093E5FEA50A5}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="16110" windowWidth="14610" windowHeight="15585" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A20839C-8FC4-4563-A5AC-03E15566398E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>Results first generation of Triplet contrastive Model and Autoencoder comparision to Superviesed Modell:</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Comparision Refrence Models:</t>
   </si>
   <si>
-    <t>Standalone Model:</t>
-  </si>
-  <si>
     <t>Reference Run 1:</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>From comparison table</t>
   </si>
   <si>
     <t>Time/freq Mask 7/50 default,
@@ -604,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -631,25 +625,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -668,56 +659,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -862,6 +804,38 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color theme="5" tint="0.39997558519241921"/>
         </top>
@@ -1046,12 +1020,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1103,16 +1071,27 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1882,8 +1861,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3097434" y="7546009"/>
-              <a:ext cx="6441646" cy="4296189"/>
+              <a:off x="3103784" y="7422184"/>
+              <a:ext cx="6365446" cy="4216814"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1921,19 +1900,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:H85" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}" name="Table3" displayName="Table3" ref="A77:H85" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A77:H85" xr:uid="{E127AD73-D5D8-4CCF-84C8-A2807AFB030F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB8CDC6F-9C20-4096-A0E5-0D72E0B4664E}" name=" "/>
-    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name="  " dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{C0AC0F0D-6EDE-47BC-8E7D-486DB954E22B}" name="  " dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{99D3A78A-7368-42C8-93BF-F875498BBB3C}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{7F7018A6-5984-424B-92B1-0A1D2415EAFE}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{5ABB6AD2-F7EC-4A30-AB50-8C9516D2D242}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{9EA54D08-66EF-44C3-879C-A916CE98A696}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{19D796DB-2B1D-41FC-B1A7-905614F1536D}" name="Mean" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{19D796DB-2B1D-41FC-B1A7-905614F1536D}" name="Mean" dataDxfId="24">
       <calculatedColumnFormula>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4688CF39-677F-4E35-8FD4-F6DA77D8AE9C}" name="Rank" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{4688CF39-677F-4E35-8FD4-F6DA77D8AE9C}" name="Rank" dataDxfId="23">
       <calculatedColumnFormula>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1942,19 +1921,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}" name="Table1" displayName="Table1" ref="A116:H131" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}" name="Table1" displayName="Table1" ref="A116:H131" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A116:H131" xr:uid="{8860920A-2D31-4AA3-8073-C90DDFBF7329}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E07EDB55-BEA7-4CA2-A5A6-673EF6BA822A}" name=" "/>
-    <tableColumn id="2" xr3:uid="{4666AB22-C86C-4C36-989A-2DABFFF963E7}" name="   " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4666AB22-C86C-4C36-989A-2DABFFF963E7}" name="   " dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{76D20BE2-2DAF-49CD-9D84-8A2C618CCE2F}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{B97EC869-3EEC-481F-B024-1D21F302F6AD}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{76AADE4E-AC3A-4294-B5D1-25E132CC2485}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{BEBA1E20-55EA-444B-873C-43F0D5A87632}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{4AAE523D-D01F-4A58-A235-088933009CEE}" name="Mean" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{4AAE523D-D01F-4A58-A235-088933009CEE}" name="Mean" dataDxfId="20">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F63966AC-BF0D-48F1-B712-0FB1F4CDE0CC}" name="rank" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{F63966AC-BF0D-48F1-B712-0FB1F4CDE0CC}" name="rank" dataDxfId="19">
       <calculatedColumnFormula>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1963,51 +1942,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}" name="Table33" displayName="Table33" ref="A157:G164" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A157:G164" xr:uid="{498706D2-1D00-4105-A6DA-DA7B8BCA84F6}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0596CE45-4EFE-4722-B69F-FFA200D87F7E}" name=" "/>
-    <tableColumn id="2" xr3:uid="{1EA576DD-25A5-40E5-B53C-D93043B812BD}" name="  " dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{13EEAB63-E4A3-4BB1-B37A-DD073849DC3A}" name="macro avg f1"/>
-    <tableColumn id="4" xr3:uid="{6B7F3B1F-5A7A-4153-9286-BD168BDCF9B1}" name="macro avg-precision/balanced Accuracy"/>
-    <tableColumn id="5" xr3:uid="{351A51AD-5B54-41F4-AA83-196D06DCB300}" name="Kappa"/>
-    <tableColumn id="6" xr3:uid="{7B0A1711-1D85-451A-8606-9A47DD9409B0}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{F0F5955F-F0EB-422B-A18E-82C1C3F95343}" name="Comments"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}" name="Table15" displayName="Table15" ref="A172:H189" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A172:H189" xr:uid="{EEFA90C9-2407-4CCD-8D0A-7B435BAF3EB3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{85C8B1DF-C38D-4D4A-91A3-EFFCC74F927D}" name=" "/>
-    <tableColumn id="2" xr3:uid="{9F2BC945-D326-4B76-8CB4-50C7BD6C0426}" name="   "/>
-    <tableColumn id="3" xr3:uid="{4040CFB3-5357-41D6-8CDA-37729EBAD2D7}" name="macro avg f1"/>
-    <tableColumn id="4" xr3:uid="{FDD369D4-89CC-44FF-8BB1-E93C878D46AC}" name="macro avg-precision/balanced Accuracy"/>
-    <tableColumn id="5" xr3:uid="{ADEC3AE9-C98F-4007-B740-6D009F61D0B2}" name="Kappa"/>
-    <tableColumn id="6" xr3:uid="{F74A9505-1A0A-47B0-9605-48122AD8027B}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{67461F49-9B8D-40EE-B711-89BAC5A60E4D}" name="Mean" dataDxfId="23">
-      <calculatedColumnFormula>AVERAGE(Table15[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{7EE25E53-38D2-4D2E-8BA6-6A2FFAC75EFC}" name="Comments"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}" name="Table5" displayName="Table5" ref="A138:H140" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}" name="Table5" displayName="Table5" ref="A138:H140" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="A138:H140" xr:uid="{5516E378-C804-468D-B1B8-32E94E9DC0F9}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{086A9616-E611-4C79-A501-147557DCCEF4}" name=" " dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{030C1E67-A861-4653-AF79-ECB8A890E832}" name="   " dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{086A9616-E611-4C79-A501-147557DCCEF4}" name=" " dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{030C1E67-A861-4653-AF79-ECB8A890E832}" name="   " dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{7D32DAD3-5CBD-43F3-9066-D4C391B67FF6}" name="macro avg f1"/>
     <tableColumn id="4" xr3:uid="{EA98D043-5BF4-4805-B31C-D33C9E5CB699}" name="macro avg-precision/balanced Accuracy"/>
     <tableColumn id="5" xr3:uid="{4C567BF7-F31A-456B-9501-698C527D5AFC}" name="Kappa"/>
     <tableColumn id="6" xr3:uid="{17C0DAC7-FDE2-4D43-8A6B-FEEAC09DAEBB}" name="Accuracy"/>
-    <tableColumn id="7" xr3:uid="{68C3DDDB-1B5B-4329-AFF6-963B3A32E555}" name="Mean" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{68C3DDDB-1B5B-4329-AFF6-963B3A32E555}" name="Mean" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(Table5[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{C1CCEE3B-A584-4DAB-A666-FB5B487B6543}" name="Comments"/>
@@ -2016,24 +1960,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84518F59-B0C9-4A51-AF1D-684AA8AD53E8}" name="Table6" displayName="Table6" ref="A91:L99" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84518F59-B0C9-4A51-AF1D-684AA8AD53E8}" name="Table6" displayName="Table6" ref="A91:L99" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A91:L99" xr:uid="{84518F59-B0C9-4A51-AF1D-684AA8AD53E8}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DC7F5440-E688-4371-9FA0-EADEBA216037}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{947EC533-0376-454E-817C-707AA2DDC380}" name="Time mask" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5DD78466-9D8A-41FF-A0DE-2725C0801E04}" name="Freq mask" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9E13E6F8-2A68-4E29-83DB-4EA1954587A3}" name="batchsize" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AD4CF29C-EFD7-415B-83A0-80BFAF8231AA}" name="desired length in sec" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{2F75A5C9-8868-49B2-AEEA-9FDAA962619B}" name="CH" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{51198886-F5EA-411D-8E38-CFF3979C6121}" name="macro avg f1" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{14D2E53A-FF22-4B0A-BAFB-569A3F787C73}" name="macro avg-precision/balanced Accuracy" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{D57330B4-E7D1-418B-9EF3-F0EC9E9196BD}" name="Kappa" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{809850D1-F057-40F1-AAA9-C176BCE454AB}" name="Accuracy" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{FD6A8607-1C69-4AEB-AC55-AF1CBF547D62}" name="Mean" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{947EC533-0376-454E-817C-707AA2DDC380}" name="Time mask" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5DD78466-9D8A-41FF-A0DE-2725C0801E04}" name="Freq mask" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9E13E6F8-2A68-4E29-83DB-4EA1954587A3}" name="batchsize" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{AD4CF29C-EFD7-415B-83A0-80BFAF8231AA}" name="desired length in sec" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2F75A5C9-8868-49B2-AEEA-9FDAA962619B}" name="CH" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{51198886-F5EA-411D-8E38-CFF3979C6121}" name="macro avg f1" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{14D2E53A-FF22-4B0A-BAFB-569A3F787C73}" name="macro avg-precision/balanced Accuracy" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D57330B4-E7D1-418B-9EF3-F0EC9E9196BD}" name="Kappa" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{809850D1-F057-40F1-AAA9-C176BCE454AB}" name="Accuracy" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FD6A8607-1C69-4AEB-AC55-AF1CBF547D62}" name="Mean" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{94D43D66-5E00-4726-B90A-776BB2B4A2E1}" name="Rank" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{94D43D66-5E00-4726-B90A-776BB2B4A2E1}" name="Rank" dataDxfId="0">
       <calculatedColumnFormula>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2338,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA59E500-7BAA-4205-AA8D-1B424910C6AC}">
-  <dimension ref="A2:L187"/>
+  <dimension ref="A2:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I201" sqref="A151:I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2909,7 +2853,7 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2919,10 +2863,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
@@ -2937,18 +2881,18 @@
         <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78">
         <v>0.92859999999999998</v>
@@ -2976,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C79">
         <v>0.89080000000000004</v>
@@ -3004,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80">
         <v>0.89710000000000001</v>
@@ -3028,29 +2972,29 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="36">
         <v>0.91320000000000001</v>
       </c>
-      <c r="D81" s="39">
+      <c r="D81" s="36">
         <v>0.91539999999999999</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E81" s="36">
         <v>0.88580000000000003</v>
       </c>
-      <c r="F81" s="39">
+      <c r="F81" s="36">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G81" s="39">
+      <c r="G81" s="36">
         <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.91059999999999997</v>
       </c>
-      <c r="H81" s="39">
+      <c r="H81" s="36">
         <f>RANK(Table3[[#This Row],[macro avg f1]],Table3[macro avg f1],0)</f>
         <v>3</v>
       </c>
@@ -3085,10 +3029,10 @@
     </row>
     <row r="83" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <v>0.91400000000000003</v>
@@ -3102,7 +3046,7 @@
       <c r="F83">
         <v>0.91739999999999999</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G83">
         <f>AVERAGE(Table3[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.90215000000000001</v>
       </c>
@@ -3113,10 +3057,10 @@
     </row>
     <row r="84" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C84">
         <v>0.84799999999999998</v>
@@ -3141,10 +3085,10 @@
     </row>
     <row r="85" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <v>0.88229999999999997</v>
@@ -3169,48 +3113,48 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
         <v>64</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>65</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="22" t="s">
+      <c r="I91" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J91" s="22" t="s">
+      <c r="J91" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>62</v>
+      <c r="K91" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -3229,8 +3173,8 @@
       <c r="E92" s="19">
         <v>15</v>
       </c>
-      <c r="F92" s="28" t="s">
-        <v>70</v>
+      <c r="F92" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G92" s="19">
         <v>0.89080000000000004</v>
@@ -3269,8 +3213,8 @@
       <c r="E93" s="17">
         <v>15</v>
       </c>
-      <c r="F93" s="29" t="s">
-        <v>70</v>
+      <c r="F93" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="G93" s="17">
         <v>0.89710000000000001</v>
@@ -3309,8 +3253,8 @@
       <c r="E94" s="19">
         <v>15</v>
       </c>
-      <c r="F94" s="28" t="s">
-        <v>70</v>
+      <c r="F94" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G94" s="19">
         <v>0.90129999999999999</v>
@@ -3349,8 +3293,8 @@
       <c r="E95" s="17">
         <v>15</v>
       </c>
-      <c r="F95" s="29" t="s">
-        <v>70</v>
+      <c r="F95" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="G95" s="17">
         <v>0.90590000000000004</v>
@@ -3374,8 +3318,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="21" t="s">
-        <v>71</v>
+      <c r="A96" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="B96" s="19">
         <v>7</v>
@@ -3389,8 +3333,8 @@
       <c r="E96" s="19">
         <v>15</v>
       </c>
-      <c r="F96" s="28" t="s">
-        <v>69</v>
+      <c r="F96" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="G96" s="19">
         <v>0.91400000000000003</v>
@@ -3404,7 +3348,7 @@
       <c r="J96" s="19">
         <v>0.91739999999999999</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="19">
         <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.90215000000000001</v>
       </c>
@@ -3415,7 +3359,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B97" s="17">
         <v>7</v>
@@ -3429,8 +3373,8 @@
       <c r="E97" s="17">
         <v>7</v>
       </c>
-      <c r="F97" s="29" t="s">
-        <v>70</v>
+      <c r="F97" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="G97" s="17">
         <v>0.84799999999999998</v>
@@ -3455,7 +3399,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="19">
         <v>7</v>
@@ -3469,8 +3413,8 @@
       <c r="E98" s="19">
         <v>20</v>
       </c>
-      <c r="F98" s="28" t="s">
-        <v>70</v>
+      <c r="F98" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G98" s="19">
         <v>0.88229999999999997</v>
@@ -3494,41 +3438,41 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B99" s="25">
+      <c r="A99" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="23">
         <v>7</v>
       </c>
-      <c r="C99" s="25">
+      <c r="C99" s="23">
         <v>50</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D99" s="23">
         <v>32</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E99" s="23">
         <v>15</v>
       </c>
-      <c r="F99" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G99" s="25">
+      <c r="F99" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="23">
         <v>0.92859999999999998</v>
       </c>
-      <c r="H99" s="25">
+      <c r="H99" s="23">
         <v>0.92249999999999999</v>
       </c>
-      <c r="I99" s="25">
+      <c r="I99" s="23">
         <v>0.91300000000000003</v>
       </c>
-      <c r="J99" s="25">
+      <c r="J99" s="23">
         <v>0.94489999999999996</v>
       </c>
-      <c r="K99" s="26">
+      <c r="K99" s="23">
         <f>AVERAGE(Table6[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.92725000000000002</v>
       </c>
-      <c r="L99" s="26">
+      <c r="L99" s="23">
         <f>RANK(Table6[[#This Row],[macro avg f1]],Table6[macro avg f1],0)</f>
         <v>1</v>
       </c>
@@ -3538,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="32.5" x14ac:dyDescent="0.35">
@@ -3548,10 +3492,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>6</v>
@@ -3565,21 +3509,21 @@
       <c r="F116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="35" t="s">
-        <v>50</v>
+      <c r="G116" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="33">
+        <v>58</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="30">
         <v>0.92859999999999998</v>
       </c>
       <c r="D117" s="15">
@@ -3591,7 +3535,7 @@
       <c r="F117" s="15">
         <v>0.94489999999999996</v>
       </c>
-      <c r="G117" s="36">
+      <c r="G117" s="33">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.92725000000000002</v>
       </c>
@@ -3601,8 +3545,8 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="27" t="s">
-        <v>35</v>
+      <c r="B118" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C118">
         <v>0.9113</v>
@@ -3616,7 +3560,7 @@
       <c r="F118">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G118" s="27">
+      <c r="G118" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.911775</v>
       </c>
@@ -3626,8 +3570,8 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="27" t="s">
-        <v>36</v>
+      <c r="B119" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C119">
         <v>0.91800000000000004</v>
@@ -3641,7 +3585,7 @@
       <c r="F119">
         <v>0.92579999999999996</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G119" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.90949999999999998</v>
       </c>
@@ -3651,8 +3595,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="27" t="s">
-        <v>37</v>
+      <c r="B120" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C120">
         <v>0.91579999999999995</v>
@@ -3666,7 +3610,7 @@
       <c r="F120">
         <v>0.93640000000000001</v>
       </c>
-      <c r="G120" s="27">
+      <c r="G120" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.9192499999999999</v>
       </c>
@@ -3676,37 +3620,37 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="31"/>
-      <c r="B121" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="31">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="28">
         <v>0.91010000000000002</v>
       </c>
-      <c r="D121" s="31">
+      <c r="D121" s="28">
         <v>0.92069999999999996</v>
       </c>
-      <c r="E121" s="31">
+      <c r="E121" s="28">
         <v>0.89290000000000003</v>
       </c>
-      <c r="F121" s="31">
+      <c r="F121" s="28">
         <v>0.93220000000000003</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G121" s="29">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.91397499999999998</v>
       </c>
-      <c r="H121" s="31">
+      <c r="H121" s="28">
         <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C122">
         <v>0.94520000000000004</v>
@@ -3720,7 +3664,7 @@
       <c r="F122">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G122" s="27">
+      <c r="G122" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93282500000000002</v>
       </c>
@@ -3730,8 +3674,8 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="27" t="s">
-        <v>35</v>
+      <c r="B123" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C123" s="11">
         <v>0.95589999999999997</v>
@@ -3743,11 +3687,11 @@
         <v>0.91639999999999999</v>
       </c>
       <c r="F123" s="11">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="G123" s="37">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G123" s="34">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
-        <v>0.94179999999999997</v>
+        <v>0.94337499999999996</v>
       </c>
       <c r="H123">
         <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
@@ -3755,8 +3699,8 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="27" t="s">
-        <v>36</v>
+      <c r="B124" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C124">
         <v>0.9415</v>
@@ -3770,7 +3714,7 @@
       <c r="F124">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G124" s="27">
+      <c r="G124" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93302499999999999</v>
       </c>
@@ -3780,8 +3724,8 @@
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B125" s="27" t="s">
-        <v>37</v>
+      <c r="B125" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C125">
         <v>0.92679999999999996</v>
@@ -3795,7 +3739,7 @@
       <c r="F125">
         <v>0.94279999999999997</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G125" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.93352500000000005</v>
       </c>
@@ -3803,40 +3747,40 @@
         <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
         <v>6</v>
       </c>
-      <c r="K125" s="31"/>
+      <c r="K125" s="28"/>
     </row>
     <row r="126" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="31"/>
-      <c r="B126" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" s="31">
+      <c r="A126" s="28"/>
+      <c r="B126" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="28">
         <v>0.93859999999999999</v>
       </c>
-      <c r="D126" s="31">
+      <c r="D126" s="28">
         <v>0.92479999999999996</v>
       </c>
-      <c r="E126" s="31">
+      <c r="E126" s="28">
         <v>0.90580000000000005</v>
       </c>
-      <c r="F126" s="31">
+      <c r="F126" s="28">
         <v>0.94069999999999998</v>
       </c>
-      <c r="G126" s="32">
+      <c r="G126" s="29">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.92747500000000005</v>
       </c>
-      <c r="H126" s="31">
+      <c r="H126" s="28">
         <f>RANK(Table1[[#This Row],[macro avg f1]],Table1[macro avg f1],0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C127">
         <v>0.89670000000000005</v>
@@ -3850,7 +3794,7 @@
       <c r="F127">
         <v>0.90890000000000004</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G127" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.89060000000000006</v>
       </c>
@@ -3860,8 +3804,8 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="27" t="s">
-        <v>35</v>
+      <c r="B128" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C128">
         <v>0.89670000000000005</v>
@@ -3875,7 +3819,7 @@
       <c r="F128">
         <v>0.92159999999999997</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.89742499999999992</v>
       </c>
@@ -3885,8 +3829,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B129" s="27" t="s">
-        <v>36</v>
+      <c r="B129" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C129">
         <v>0.87239999999999995</v>
@@ -3900,7 +3844,7 @@
       <c r="F129">
         <v>0.90249999999999997</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G129" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.86574999999999991</v>
       </c>
@@ -3910,8 +3854,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B130" s="27" t="s">
-        <v>37</v>
+      <c r="B130" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C130">
         <v>0.85529999999999995</v>
@@ -3925,7 +3869,7 @@
       <c r="F130">
         <v>0.90249999999999997</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="24">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.85935000000000006</v>
       </c>
@@ -3935,8 +3879,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B131" s="27" t="s">
-        <v>38</v>
+      <c r="B131" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C131" s="14">
         <v>0.90229999999999999</v>
@@ -3950,7 +3894,7 @@
       <c r="F131" s="14">
         <v>0.92369999999999997</v>
       </c>
-      <c r="G131" s="38">
+      <c r="G131" s="35">
         <f>AVERAGE(Table1[[#This Row],[macro avg f1]:[Accuracy]])</f>
         <v>0.89690000000000003</v>
       </c>
@@ -3961,10 +3905,10 @@
     </row>
     <row r="136" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A136" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
@@ -3974,10 +3918,10 @@
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>6</v>
@@ -3992,18 +3936,18 @@
         <v>5</v>
       </c>
       <c r="G138" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H138" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C139">
         <v>0.52529999999999999</v>
@@ -4024,10 +3968,10 @@
     </row>
     <row r="140" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C140">
         <v>0.77680000000000005</v>
@@ -4047,240 +3991,78 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A155" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B155" t="s">
-        <v>49</v>
-      </c>
+      <c r="A155" s="9"/>
     </row>
     <row r="156" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B156" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>41</v>
-      </c>
-      <c r="B157" t="s">
-        <v>48</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>26</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>27</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>30</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>42</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>42</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B165" s="3"/>
     </row>
     <row r="170" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A170" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B170" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A170" s="9"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="4"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>41</v>
-      </c>
-      <c r="B172" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B173" t="s">
-        <v>34</v>
-      </c>
+      <c r="A173" s="7"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B174" t="s">
-        <v>35</v>
-      </c>
       <c r="E174" s="10"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B175" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B176" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B177" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B179" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B180" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B181" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B182" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B183" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B184" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B185" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B186" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B187" t="s">
-        <v>38</v>
-      </c>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>